--- a/db/queries/predicted/KlamathInvasiveSpecies-N2-N2-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/KlamathInvasiveSpecies-N2-N2-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -504,14 +499,9 @@
           <t>tab_naturalness_modifier</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -576,14 +566,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'event_notes'}, {'select element': '1'}, {'column': 'location_id'}, {'table source item': '1'}, {'table': 'tbl_event_details'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'where': '1'}, {'predicate': '1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -649,14 +634,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'event_notes'}, {'select element': '1'}, {'column': 'loc_name'}, {'table source item': '1'}, {'table': 'tbl_event_details'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'where': '1'}, {'predicate': '1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -719,14 +699,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_events'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -791,14 +766,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_macrohabitat'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_microhabitat'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -862,14 +832,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'slope'}, {'table source item': '1'}, {'table': 'tbl_macrohabitat'}, {'where': '1'}, {'predicate': '1'}, {'column': 'hydrology'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -934,14 +899,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'reason'}, {'select element': '1'}, {'column': '[table]'}, {'select element': '1'}, {'column': 'field'}, {'select element': '1'}, {'column': 'date_change'}, {'table source item': '1'}, {'table': 'tbl_edit_log'}, {'order by': '1'}, {'column': 'date_change'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -1005,14 +965,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'soil_dist'}, {'table source item': '1'}, {'table': 'tbl_microhabitat'}, {'where': '1'}, {'predicate': '1'}, {'column': 'surfacewater'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1079,14 +1034,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'lightindex'}, {'select element': '1'}, {'column': 'evergreen'}, {'select element': '1'}, {'column': 'litter'}, {'select element': '1'}, {'column': 'vegheight'}, {'select element': '1'}, {'column': 'elevation'}, {'table source item': '1'}, {'table': 'tbl_microhabitat'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'where': '1'}, {'predicate': '1'}, {'order by': '1'}, {'column': 'elevation'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1149,14 +1099,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'species'}, {'table source item': '1'}, {'table': 'tlu_species_crla'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1220,14 +1165,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'species'}, {'table source item': '1'}, {'table': 'tlu_species_labe'}, {'where': '1'}, {'predicate': '1'}, {'column': 'sampleyear'}]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -1291,14 +1231,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'sampleyear'}, {'select element': '1'}, {'function': 'count'}, {'column': 'species'}, {'table source item': '1'}, {'table': 'tlu_species_orca'}, {'group by': '1'}, {'column': 'sampleyear'}]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -1362,14 +1297,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'sampleyear'}, {'select element': '1'}, {'function': 'count'}, {'column': 'species'}, {'table source item': '1'}, {'table': 'tlu_species_redw'}, {'group by': '1'}, {'column': 'sampleyear'}]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -1434,14 +1364,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'species'}, {'table source item': '1'}, {'table': 'tlu_species_redw'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'species'}, {'table source item': '1'}, {'table': 'tlu_species_whis'}, {'negation': '1'}, {'column': 'species'}]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1505,14 +1430,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'species'}, {'table source item': '1'}, {'table': 'tlu_species_lavo'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'species'}, {'table source item': '1'}, {'table': 'tlu_species_orca'}, {'column': 'species'}]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1576,14 +1496,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'position_title'}, {'select element': '1'}, {'column': 'city'}, {'select element': '1'}, {'column': 'state_code'}, {'select element': '1'}, {'column': 'zip_code'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'first_name'}, {'predicate': '1'}, {'column': 'last_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1647,14 +1562,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'position_title'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'first_name'}, {'predicate': '1'}, {'column': 'last_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1717,14 +1627,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'enum_group'}, {'table source item': '1'}, {'table': 'tlu_enumerations'}]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1788,14 +1693,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'enum_description'}, {'table source item': '1'}, {'table': 'tlu_enumerations'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'enum_group'}, {'predicate': '1'}, {'column': 'enum_code'}]</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1859,14 +1759,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'enum_group'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_enumerations'}, {'group by': '1'}, {'column': 'enum_group'}]</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1932,14 +1827,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'revision_reason'}, {'select element': '1'}, {'column': 'revision_desc'}, {'table source item': '1'}, {'table': 'tbl_db_revisions'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'predicate': '1'}, {'column': 'revision_contact_id'}, {'column': 'contact_id'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'first_name'}, {'predicate': '1'}, {'column': 'last_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -2003,14 +1893,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_db_revisions'}, {'group by': '1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -2075,14 +1960,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'site_id'}, {'select element': '1'}, {'column': 'site_name'}, {'select element': '1'}, {'column': 'site_desc'}, {'select element': '1'}, {'column': 'length'}, {'select element': '1'}, {'column': 'route'}, {'table source item': '1'}, {'table': 'tbl_sites'}, {'order by': '1'}, {'column': 'site_start_y'}]</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -2146,14 +2026,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'site_start_x'}, {'select element': '1'}, {'column': 'site_end_x'}, {'select element': '1'}, {'column': 'site_start_y'}, {'select element': '1'}, {'column': 'site_end_y'}, {'table source item': '1'}, {'table': 'tbl_sites'}, {'where': '1'}, {'predicate': '1'}, {'column': 'site_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -2218,14 +2093,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'site_name'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_sites'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'predicate': '1'}, {'column': 'site_id'}, {'column': 'site_id'}, {'group by': '1'}, {'column': 'site_name'}, {'order by': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -2290,14 +2160,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'loc_name'}, {'select element': '1'}, {'column': 'x_coord'}, {'select element': '1'}, {'column': 'y_coord'}, {'table source item': '1'}, {'table': 'tbl_sites'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'predicate': '1'}, {'column': 'site_id'}, {'column': 'site_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'site_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -2363,14 +2228,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'first_name'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'join': '1'}, {'table source item': '1'}, {'table': 'xref_event_contacts'}, {'predicate': '1'}, {'column': 'contact_id'}, {'column': 'contact_id'}, {'group by': '1'}, {'column': 'first_name'}, {'order by': '1'}, {'function': 'count'}, {'column': 'event_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -2436,14 +2296,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'first_name'}, {'select element': '1'}, {'column': 'last_name'}, {'select element': '1'}, {'column': 'position_title'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'join': '1'}, {'table source item': '1'}, {'table': 'xref_event_contacts'}, {'predicate': '1'}, {'column': 'contact_id'}, {'column': 'contact_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'predicate': '1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -2508,14 +2363,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'loc_name'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'group by': '1'}, {'column': 'loc_name'}, {'order by': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -2582,14 +2432,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'site_name'}, {'select element': '1'}, {'column': 'site_desc'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_sites'}, {'predicate': '1'}, {'column': 'site_id'}, {'column': 'site_id'}, {'group by': '1'}, {'column': 'site_name'}, {'group by': '1'}, {'column': 'site_desc'}, {'order by': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -2653,14 +2498,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'pdop'}, {'select element': '1'}, {'column': 'hdop'}, {'select element': '1'}, {'column': 'epe'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_sites'}, {'predicate': '1'}, {'column': 'site_id'}, {'column': 'site_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'site_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -2724,14 +2564,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'county'}]</t>
-        </is>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -2796,14 +2631,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'loc_type'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'county'}, {'group by': '1'}, {'column': 'loc_type'}]</t>
-        </is>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -2870,14 +2700,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'site_name'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_sites'}, {'predicate': '1'}, {'column': 'site_id'}, {'column': 'site_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'loc_type'}, {'group by': '1'}, {'column': 'site_name'}, {'order by': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -2942,14 +2767,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'event_id'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'watershed'}, {'predicate': '1'}, {'column': 'subwatershed'}]</t>
-        </is>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -3013,14 +2833,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'elevation'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'subwatershed'}]</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -3084,14 +2899,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'rnd_plt_in'}]</t>
-        </is>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -3155,14 +2965,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'loc_name'}, {'select element': '1'}, {'column': 'x_coord'}, {'select element': '1'}, {'column': 'y_coord'}, {'select element': '1'}, {'column': 'coord_units'}, {'select element': '1'}, {'column': 'coord_system'}, {'select element': '1'}, {'column': 'datum'}, {'select element': '1'}, {'column': 'est_h_error'}, {'select element': '1'}, {'column': 'accuracy_notes'}, {'select element': '1'}, {'column': 'loc_type'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'loc_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -3226,14 +3031,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'hydrology'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_macrohabitat'}, {'group by': '1'}, {'column': 'hydrology'}]</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -3298,14 +3098,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'macrohab'}, {'select element': '1'}, {'column': 'microhab'}, {'select element': '1'}, {'column': 'hydrology'}, {'select element': '1'}, {'column': 'landuse'}, {'select element': '1'}, {'column': 'slope'}, {'select element': '1'}, {'column': 'aspect'}, {'table source item': '1'}, {'table': 'tbl_macrohabitat'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'predicate': '1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -3367,11 +3162,6 @@
       <c r="N41" t="inlineStr">
         <is>
           <t>N2</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'deciduous'}, {'select element': '1'}, {'column': 'shrub'}, {'select element': '1'}, {'column': 'herb'}, {'select element': '1'}, {'column': 'woodydebris'}, {'select element': '1'}, {'column': 'litter'}, {'select element': '1'}, {'column': 'bareground'}, {'select element': '1'}, {'column': 'rock'}, {'table source item': '1'}, {'table': 'tbl_microhabitat'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'phenology'}, {'predicate': '1'}, {'column': 'coverpercent'}, {'function': 'function'}]</t>
         </is>
       </c>
     </row>
